--- a/docs/공유문서/docs.google.com link.xlsx
+++ b/docs/공유문서/docs.google.com link.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\eclipse-workspace\Thanks.com.docs\docs\공유문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AF6D9C-78BE-46BD-A913-7E6B40325D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3A82BD-74AB-48ED-817A-8473BAC5BBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24225" yWindow="9825" windowWidth="9015" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://docs.google.com/document/d/1uXdF24EMxxxT9a32xWe-dNyGmoGQr0Ril_MVrmw9mI4/edit?usp=sharing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1coir2goOETb1g4lfLj3Olcdrd1p-QP9l2bRY980c5tI/edit?usp=sharing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -175,6 +187,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -458,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -524,11 +537,11 @@
         <v>6</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D4" ca="1" si="0">TODAY()</f>
+        <f t="shared" ref="D3:D5" ca="1" si="0">TODAY()</f>
         <v>44440</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E4" ca="1" si="1">TODAY()</f>
+        <f t="shared" ref="E3:E5" ca="1" si="1">TODAY()</f>
         <v>44440</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -537,7 +550,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A18" si="2">A3+1</f>
+        <f t="shared" ref="A4:A5" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -559,12 +572,27 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44440</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>44440</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -748,8 +776,9 @@
     <hyperlink ref="F3" r:id="rId1" xr:uid="{43D60C28-AB25-4B1A-81AF-32E565007A1A}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{CA9EEEA5-3968-4027-BA60-77B9EEC10BBE}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{A6638777-6CB7-4A7E-9DCE-F7A8754B300A}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{02CBB0AC-20E8-474F-A782-8C5FC851A7C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
--- a/docs/공유문서/docs.google.com link.xlsx
+++ b/docs/공유문서/docs.google.com link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\eclipse-workspace\Thanks.com.docs\docs\공유문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3A82BD-74AB-48ED-817A-8473BAC5BBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC9E1E0-8EF0-4740-93B3-F5DEB01C59CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1coir2goOETb1g4lfLj3Olcdrd1p-QP9l2bRY980c5tI/edit?usp=sharing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1_vnjk1kLq-E-3GQOprF-9EoliXrGBZxEmbYnXyneDFA/edit?usp=sharing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록 21.09.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -188,6 +200,10 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -471,14 +487,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="107.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -493,7 +510,7 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -514,12 +531,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3">
-        <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="E2" s="3">
-        <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -537,12 +552,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D5" ca="1" si="0">TODAY()</f>
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E5" ca="1" si="1">TODAY()</f>
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -550,7 +563,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A5" si="2">A3+1</f>
+        <f t="shared" ref="A4:A6" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -560,11 +573,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="E3:E6" ca="1" si="1">TODAY()</f>
         <v>44440</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -573,7 +585,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -583,7 +595,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="D3:D6" ca="1" si="2">TODAY()</f>
         <v>44440</v>
       </c>
       <c r="E5" s="3">
@@ -595,18 +607,33 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>44440</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>44440</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -614,7 +641,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
@@ -622,7 +649,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
@@ -630,7 +657,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
@@ -638,7 +665,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
@@ -646,7 +673,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -654,7 +681,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -662,7 +689,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -670,7 +697,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
@@ -678,7 +705,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
@@ -686,7 +713,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
@@ -694,7 +721,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -702,7 +729,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
@@ -710,7 +737,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
@@ -718,7 +745,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
@@ -726,7 +753,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
@@ -734,7 +761,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
@@ -742,7 +769,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
@@ -750,7 +777,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
@@ -758,7 +785,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
@@ -766,7 +793,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
@@ -777,8 +804,9 @@
     <hyperlink ref="F4" r:id="rId2" xr:uid="{CA9EEEA5-3968-4027-BA60-77B9EEC10BBE}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{A6638777-6CB7-4A7E-9DCE-F7A8754B300A}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{02CBB0AC-20E8-474F-A782-8C5FC851A7C2}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{511E6D6F-A1F1-4B73-999C-82EDC4D15EE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
--- a/docs/공유문서/docs.google.com link.xlsx
+++ b/docs/공유문서/docs.google.com link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\eclipse-workspace\Thanks.com.docs\docs\공유문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC9E1E0-8EF0-4740-93B3-F5DEB01C59CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186DECFD-30AA-4442-A375-72549D464DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,14 @@
   </si>
   <si>
     <t>작성완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1pNNGlpCBd_vu4nRHMX5Q67ZFRJju1ID9LXqQTqgsUhw/edit?usp=sharing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록 21.09.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +496,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,10 +583,7 @@
       <c r="D4" s="3">
         <v>44439</v>
       </c>
-      <c r="E4" s="3">
-        <f t="shared" ref="E3:E6" ca="1" si="1">TODAY()</f>
-        <v>44440</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
@@ -595,13 +600,9 @@
         <v>15</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D3:D6" ca="1" si="2">TODAY()</f>
         <v>44440</v>
       </c>
-      <c r="E5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>44440</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
@@ -618,11 +619,9 @@
         <v>19</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ca="1" si="2"/>
         <v>44440</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ca="1" si="1"/>
         <v>44440</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -630,12 +629,20 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3">
+        <v>44440</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -805,8 +812,9 @@
     <hyperlink ref="F2" r:id="rId3" xr:uid="{A6638777-6CB7-4A7E-9DCE-F7A8754B300A}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{02CBB0AC-20E8-474F-A782-8C5FC851A7C2}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{511E6D6F-A1F1-4B73-999C-82EDC4D15EE5}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{9124D4F0-CC45-4195-B0E4-861F8883283E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
--- a/docs/공유문서/docs.google.com link.xlsx
+++ b/docs/공유문서/docs.google.com link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\eclipse-workspace\Thanks.com.docs\docs\공유문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186DECFD-30AA-4442-A375-72549D464DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45E5C79-F38F-490C-90FE-2E1312BB076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,22 @@
   </si>
   <si>
     <t>회의록 21.09.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/document/d/1vZjXa_k3vVpTO30KCqFcmMGXwoOlpoRnXeAKzUm6v7I/edit?usp=sharing </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +512,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,22 +651,36 @@
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="3">
-        <v>44440</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>44441</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44441</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44441</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -813,8 +843,9 @@
     <hyperlink ref="F5" r:id="rId4" xr:uid="{02CBB0AC-20E8-474F-A782-8C5FC851A7C2}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{511E6D6F-A1F1-4B73-999C-82EDC4D15EE5}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{9124D4F0-CC45-4195-B0E4-861F8883283E}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{4CA75145-EFED-46F2-AAB3-D74220A1CF80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>
--- a/docs/공유문서/docs.google.com link.xlsx
+++ b/docs/공유문서/docs.google.com link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\eclipse-workspace\Thanks.com.docs\docs\공유문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45E5C79-F38F-490C-90FE-2E1312BB076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE60DC8-1D72-47A5-8BF2-89149C059336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://docs.google.com/document/d/1vZjXa_k3vVpTO30KCqFcmMGXwoOlpoRnXeAKzUm6v7I/edit?usp=sharing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록 21.09.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/document/d/1eyr92oHBWXjECx7IV5jI3gZCCPnRhSZByheSD33Ngsc/edit?usp=sharing </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +524,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -599,7 +611,9 @@
       <c r="D4" s="3">
         <v>44439</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>44446</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
@@ -683,12 +697,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44446</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44446</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -844,8 +870,9 @@
     <hyperlink ref="F6" r:id="rId5" xr:uid="{511E6D6F-A1F1-4B73-999C-82EDC4D15EE5}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{9124D4F0-CC45-4195-B0E4-861F8883283E}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{4CA75145-EFED-46F2-AAB3-D74220A1CF80}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{2FCFC418-1C87-4A87-97EF-ADD889FCBF51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
--- a/docs/공유문서/docs.google.com link.xlsx
+++ b/docs/공유문서/docs.google.com link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\eclipse-workspace\Thanks.com.docs\docs\공유문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE60DC8-1D72-47A5-8BF2-89149C059336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BBAF3D-3F52-4E93-9AF0-8D8011F465DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,31 +124,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능명세서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작성완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">https://docs.google.com/document/d/1vZjXa_k3vVpTO30KCqFcmMGXwoOlpoRnXeAKzUm6v7I/edit?usp=sharing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/document/d/1eyr92oHBWXjECx7IV5jI3gZCCPnRhSZByheSD33Ngsc/edit?usp=sharing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>작성중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">https://docs.google.com/document/d/1vZjXa_k3vVpTO30KCqFcmMGXwoOlpoRnXeAKzUm6v7I/edit?usp=sharing </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회의록 21.09.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.google.com/document/d/1eyr92oHBWXjECx7IV5jI3gZCCPnRhSZByheSD33Ngsc/edit?usp=sharing </t>
+    <t>회의록 21.09.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM Model Canvas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/document/d/1nRPKm3GW7gqeqbQy74UW5aTfU1D3iD6DQN1OjFFqmCc/edit?usp=sharing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명세서 excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명세서 docs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1TIVRES-e09OLuaUDE9o-gJbBBAvwVU7yba3yo0adE1E/edit?usp=sharing </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +269,31 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -524,7 +572,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -666,7 +714,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>44441</v>
@@ -683,17 +731,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3">
         <v>44441</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>44446</v>
+      </c>
       <c r="F8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -701,36 +751,58 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44445</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44445</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44446</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="D11" s="3">
         <v>44446</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="3">
         <v>44446</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -862,6 +934,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="완료">
+      <formula>NOT(ISERROR(SEARCH("완료",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="중">
+      <formula>NOT(ISERROR(SEARCH("중",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="취소">
+      <formula>NOT(ISERROR(SEARCH("취소",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{43D60C28-AB25-4B1A-81AF-32E565007A1A}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{CA9EEEA5-3968-4027-BA60-77B9EEC10BBE}"/>
@@ -871,8 +954,10 @@
     <hyperlink ref="F7" r:id="rId6" xr:uid="{9124D4F0-CC45-4195-B0E4-861F8883283E}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{4CA75145-EFED-46F2-AAB3-D74220A1CF80}"/>
     <hyperlink ref="F9" r:id="rId8" xr:uid="{2FCFC418-1C87-4A87-97EF-ADD889FCBF51}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{0C2A8075-067E-4F0F-A62C-EB3CB8356D3B}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{0C0EB81C-FFA0-43F5-A167-8F28C70047D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
 </worksheet>
 </file>
--- a/docs/공유문서/docs.google.com link.xlsx
+++ b/docs/공유문서/docs.google.com link.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\eclipse-workspace\Thanks.com.docs\docs\공유문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BBAF3D-3F52-4E93-9AF0-8D8011F465DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D30F28D-66BF-4CF2-8C1F-1EC2D11FDB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24015" yWindow="4350" windowWidth="9015" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1coir2goOETb1g4lfLj3Olcdrd1p-QP9l2bRY980c5tI/edit?usp=sharing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회의록 21.09.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +168,26 @@
   </si>
   <si>
     <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1TIVRES-e09OLuaUDE9o-gJbBBAvwVU7yba3yo0adE1E/edit?usp=sharing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록 21.09.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록 21.09.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/document/d/1f8uEo7_P4pvILZmsiaNK-yn_Yr2qhtNAxXRYQn64J8g/edit?usp=sharing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/document/d/15qLXRl7cC7AUjBjnK5mUkJajz2YlU0Rs08H0ti66iI8/edit </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,18 +293,18 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -569,10 +584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -624,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
@@ -654,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <v>44439</v>
@@ -675,26 +691,28 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3">
         <v>44440</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>44448</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="3">
         <v>44440</v>
@@ -703,18 +721,18 @@
         <v>44440</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>44441</v>
@@ -723,7 +741,7 @@
         <v>44441</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -731,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3">
         <v>44441</v>
@@ -743,18 +761,18 @@
         <v>44446</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3">
         <v>44445</v>
@@ -763,7 +781,7 @@
         <v>44445</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -771,17 +789,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3">
         <v>44446</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -789,10 +807,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3">
         <v>44446</v>
@@ -801,24 +819,48 @@
         <v>44446</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44448</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44448</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44449</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44450</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -933,12 +975,19 @@
       <c r="F27" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B27" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val="*회의록*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="완료">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="완료">
       <formula>NOT(ISERROR(SEARCH("완료",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="중">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="중">
       <formula>NOT(ISERROR(SEARCH("중",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="취소">
@@ -956,8 +1005,10 @@
     <hyperlink ref="F9" r:id="rId8" xr:uid="{2FCFC418-1C87-4A87-97EF-ADD889FCBF51}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{0C2A8075-067E-4F0F-A62C-EB3CB8356D3B}"/>
     <hyperlink ref="F10" r:id="rId10" xr:uid="{0C0EB81C-FFA0-43F5-A167-8F28C70047D7}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{C9814501-E4FF-4A07-9C54-B52C8742F735}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{FEF89301-6D5B-4FDC-8239-11CDF7711738}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId13"/>
 </worksheet>
 </file>